--- a/Spec0.xlsx
+++ b/Spec0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHI\source\repos\MKCC0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6528182-4C11-4524-86EF-68609DE73DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300A7522-CCC8-4754-9CBA-F0A0B1068391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ST_AXIS" sheetId="1" r:id="rId1"/>
@@ -1506,8 +1506,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="0.000000_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.000000_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1579,11 +1579,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1867,10 +1867,10 @@
   <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F102" sqref="F102"/>
+      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2098,7 +2098,7 @@
         <v>153</v>
       </c>
       <c r="C10" s="9">
-        <f t="shared" ref="C10:D14" si="0">C4*2.6</f>
+        <f t="shared" ref="C10:C14" si="0">C4*2.6</f>
         <v>5.9799999999999999E-2</v>
       </c>
       <c r="D10" s="9">
@@ -2820,19 +2820,19 @@
         <v>225</v>
       </c>
       <c r="C39" s="8">
-        <f>10000*C3/C$8</f>
+        <f>1000*C3/C$8</f>
         <v>0</v>
       </c>
       <c r="D39" s="8">
-        <f>10000*D3/D$8</f>
+        <f t="shared" ref="D39:F39" si="13">1000*D3/D$8</f>
         <v>0</v>
       </c>
       <c r="E39" s="8">
-        <f>10000*E3/E$8</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F39" s="8">
-        <f>10000*F3/F$8</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G39" s="8">
@@ -2847,20 +2847,20 @@
         <v>226</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" ref="C40:D74" si="13">10000*C4/C$8</f>
-        <v>987.12446351931328</v>
+        <f t="shared" ref="C40:F56" si="14">1000*C4/C$8</f>
+        <v>98.71244635193132</v>
       </c>
       <c r="D40" s="8">
-        <f t="shared" si="13"/>
-        <v>1000</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="E40" s="8">
-        <f t="shared" ref="E40:F40" si="14">10000*E4/E$8</f>
-        <v>500.00000000000006</v>
+        <f t="shared" si="14"/>
+        <v>50</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" si="14"/>
-        <v>1000.0000000000001</v>
+        <v>100</v>
       </c>
       <c r="G40" s="8">
         <v>0</v>
@@ -2874,20 +2874,20 @@
         <v>227</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" si="13"/>
-        <v>3004.2918454935625</v>
+        <f t="shared" si="14"/>
+        <v>300.42918454935619</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" si="13"/>
-        <v>3030.30303030303</v>
+        <f t="shared" si="14"/>
+        <v>303.030303030303</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" ref="E41:F41" si="15">10000*E5/E$8</f>
-        <v>5000</v>
+        <f t="shared" si="14"/>
+        <v>499.99999999999994</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="15"/>
-        <v>3017.2413793103451</v>
+        <f t="shared" si="14"/>
+        <v>301.72413793103448</v>
       </c>
       <c r="G41" s="8">
         <v>0</v>
@@ -2901,20 +2901,20 @@
         <v>228</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="13"/>
-        <v>6008.583690987125</v>
+        <f t="shared" si="14"/>
+        <v>600.85836909871239</v>
       </c>
       <c r="D42" s="8">
-        <f t="shared" si="13"/>
-        <v>6060.6060606060601</v>
+        <f t="shared" si="14"/>
+        <v>606.06060606060601</v>
       </c>
       <c r="E42" s="8">
-        <f t="shared" ref="E42:F42" si="16">10000*E6/E$8</f>
-        <v>10000</v>
+        <f t="shared" si="14"/>
+        <v>999.99999999999989</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" si="16"/>
-        <v>6034.4827586206902</v>
+        <f t="shared" si="14"/>
+        <v>603.44827586206895</v>
       </c>
       <c r="G42" s="8">
         <v>0</v>
@@ -2928,20 +2928,20 @@
         <v>229</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="13"/>
-        <v>10000</v>
+        <f t="shared" si="14"/>
+        <v>1000</v>
       </c>
       <c r="D43" s="8">
-        <f t="shared" si="13"/>
-        <v>10000</v>
+        <f t="shared" si="14"/>
+        <v>1000</v>
       </c>
       <c r="E43" s="8">
-        <f t="shared" ref="E43:F43" si="17">10000*E7/E$8</f>
-        <v>10000</v>
+        <f t="shared" si="14"/>
+        <v>999.99999999999989</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="17"/>
-        <v>10000</v>
+        <f t="shared" si="14"/>
+        <v>1000.0000000000001</v>
       </c>
       <c r="G43" s="8">
         <v>0</v>
@@ -2955,20 +2955,20 @@
         <v>230</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="13"/>
-        <v>10000</v>
+        <f t="shared" si="14"/>
+        <v>1000</v>
       </c>
       <c r="D44" s="8">
-        <f t="shared" si="13"/>
-        <v>10000</v>
+        <f t="shared" si="14"/>
+        <v>1000</v>
       </c>
       <c r="E44" s="8">
-        <f t="shared" ref="E44:F44" si="18">10000*E8/E$8</f>
-        <v>10000</v>
+        <f t="shared" si="14"/>
+        <v>999.99999999999989</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" si="18"/>
-        <v>10000</v>
+        <f t="shared" si="14"/>
+        <v>1000.0000000000001</v>
       </c>
       <c r="G44" s="8">
         <v>0</v>
@@ -2982,19 +2982,19 @@
         <v>195</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D45" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" ref="E45:F45" si="19">10000*E9/E$8</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F45" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G45" s="8">
@@ -3009,19 +3009,19 @@
         <v>196</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="13"/>
-        <v>2566.5236051502143</v>
+        <f t="shared" si="14"/>
+        <v>256.65236051502143</v>
       </c>
       <c r="D46" s="8">
-        <f>10000*D10/D$8</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" ref="E46:F46" si="20">10000*E10/E$8</f>
-        <v>371.42857142857139</v>
+        <f t="shared" si="14"/>
+        <v>37.142857142857139</v>
       </c>
       <c r="F46" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G46" s="8">
@@ -3036,19 +3036,19 @@
         <v>197</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="13"/>
-        <v>7811.1587982832625</v>
+        <f t="shared" si="14"/>
+        <v>781.11587982832623</v>
       </c>
       <c r="D47" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" ref="E47:F47" si="21">10000*E11/E$8</f>
-        <v>3714.2857142857138</v>
+        <f t="shared" si="14"/>
+        <v>371.42857142857139</v>
       </c>
       <c r="F47" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G47" s="8">
@@ -3063,19 +3063,19 @@
         <v>198</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="13"/>
-        <v>15622.317596566525</v>
+        <f t="shared" si="14"/>
+        <v>1562.2317596566525</v>
       </c>
       <c r="D48" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" ref="E48:F48" si="22">10000*E12/E$8</f>
-        <v>7428.5714285714275</v>
+        <f t="shared" si="14"/>
+        <v>742.85714285714278</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G48" s="8">
@@ -3090,19 +3090,19 @@
         <v>199</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="13"/>
-        <v>26000</v>
+        <f t="shared" si="14"/>
+        <v>2599.9999999999995</v>
       </c>
       <c r="D49" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" ref="E49:F49" si="23">10000*E13/E$8</f>
-        <v>7428.5714285714275</v>
+        <f t="shared" si="14"/>
+        <v>742.85714285714278</v>
       </c>
       <c r="F49" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G49" s="8">
@@ -3117,19 +3117,19 @@
         <v>200</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" si="13"/>
-        <v>26000</v>
+        <f t="shared" si="14"/>
+        <v>2599.9999999999995</v>
       </c>
       <c r="D50" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E50" s="8">
-        <f t="shared" ref="E50:F50" si="24">10000*E14/E$8</f>
-        <v>7428.5714285714275</v>
+        <f t="shared" si="14"/>
+        <v>742.85714285714278</v>
       </c>
       <c r="F50" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G50" s="8">
@@ -3144,19 +3144,19 @@
         <v>201</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D51" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E51" s="8">
-        <f t="shared" ref="E51:F51" si="25">10000*E15/E$8</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F51" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G51" s="8">
@@ -3171,19 +3171,19 @@
         <v>202</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D52" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E52" s="8">
-        <f t="shared" ref="E52:F52" si="26">10000*E16/E$8</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F52" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G52" s="8">
@@ -3198,19 +3198,19 @@
         <v>203</v>
       </c>
       <c r="C53" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D53" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E53" s="8">
-        <f t="shared" ref="E53:F53" si="27">10000*E17/E$8</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F53" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G53" s="8">
@@ -3225,19 +3225,19 @@
         <v>204</v>
       </c>
       <c r="C54" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D54" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E54" s="8">
-        <f t="shared" ref="E54:F54" si="28">10000*E18/E$8</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F54" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G54" s="8">
@@ -3252,19 +3252,19 @@
         <v>205</v>
       </c>
       <c r="C55" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D55" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" ref="E55:F55" si="29">10000*E19/E$8</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F55" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G55" s="8">
@@ -3279,19 +3279,19 @@
         <v>206</v>
       </c>
       <c r="C56" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D56" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" ref="E56:F56" si="30">10000*E20/E$8</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F56" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G56" s="8">
@@ -3306,19 +3306,19 @@
         <v>207</v>
       </c>
       <c r="C57" s="7">
-        <f t="shared" si="13"/>
+        <f>1000*C21/C$8</f>
         <v>0</v>
       </c>
       <c r="D57" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="D57:F57" si="15">1000*D21/D$8</f>
         <v>0</v>
       </c>
       <c r="E57" s="7">
-        <f t="shared" ref="E57:F57" si="31">10000*E21/E$8</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F57" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G57" s="7">
@@ -3333,20 +3333,20 @@
         <v>208</v>
       </c>
       <c r="C58" s="7">
-        <f t="shared" si="13"/>
-        <v>-987.12446351931328</v>
+        <f t="shared" ref="C58:F74" si="16">1000*C22/C$8</f>
+        <v>-98.71244635193132</v>
       </c>
       <c r="D58" s="7">
-        <f t="shared" si="13"/>
-        <v>-1000</v>
+        <f t="shared" si="16"/>
+        <v>-100</v>
       </c>
       <c r="E58" s="7">
-        <f t="shared" ref="E58:F58" si="32">10000*E22/E$8</f>
-        <v>-500.00000000000006</v>
+        <f t="shared" si="16"/>
+        <v>-50</v>
       </c>
       <c r="F58" s="7">
-        <f t="shared" si="32"/>
-        <v>-1000.0000000000001</v>
+        <f t="shared" si="16"/>
+        <v>-100</v>
       </c>
       <c r="G58" s="7">
         <v>0</v>
@@ -3360,20 +3360,20 @@
         <v>209</v>
       </c>
       <c r="C59" s="7">
-        <f t="shared" si="13"/>
-        <v>-3004.2918454935625</v>
+        <f t="shared" si="16"/>
+        <v>-300.42918454935619</v>
       </c>
       <c r="D59" s="7">
-        <f t="shared" si="13"/>
-        <v>-3030.30303030303</v>
+        <f t="shared" si="16"/>
+        <v>-303.030303030303</v>
       </c>
       <c r="E59" s="7">
-        <f t="shared" ref="E59:F59" si="33">10000*E23/E$8</f>
-        <v>-5000</v>
+        <f t="shared" si="16"/>
+        <v>-499.99999999999994</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" si="33"/>
-        <v>-3017.2413793103451</v>
+        <f t="shared" si="16"/>
+        <v>-301.72413793103448</v>
       </c>
       <c r="G59" s="7">
         <v>0</v>
@@ -3387,20 +3387,20 @@
         <v>210</v>
       </c>
       <c r="C60" s="7">
-        <f t="shared" si="13"/>
-        <v>-6008.583690987125</v>
+        <f t="shared" si="16"/>
+        <v>-600.85836909871239</v>
       </c>
       <c r="D60" s="7">
-        <f t="shared" si="13"/>
-        <v>-6060.6060606060601</v>
+        <f t="shared" si="16"/>
+        <v>-606.06060606060601</v>
       </c>
       <c r="E60" s="7">
-        <f t="shared" ref="E60:F60" si="34">10000*E24/E$8</f>
-        <v>-10000</v>
+        <f t="shared" si="16"/>
+        <v>-999.99999999999989</v>
       </c>
       <c r="F60" s="7">
-        <f t="shared" si="34"/>
-        <v>-6034.4827586206902</v>
+        <f t="shared" si="16"/>
+        <v>-603.44827586206895</v>
       </c>
       <c r="G60" s="7">
         <v>0</v>
@@ -3414,20 +3414,20 @@
         <v>211</v>
       </c>
       <c r="C61" s="7">
-        <f t="shared" si="13"/>
-        <v>-10000</v>
+        <f t="shared" si="16"/>
+        <v>-1000</v>
       </c>
       <c r="D61" s="7">
-        <f t="shared" si="13"/>
-        <v>-10000</v>
+        <f t="shared" si="16"/>
+        <v>-1000</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" ref="E61:F61" si="35">10000*E25/E$8</f>
-        <v>-10000</v>
+        <f t="shared" si="16"/>
+        <v>-999.99999999999989</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" si="35"/>
-        <v>-10000</v>
+        <f t="shared" si="16"/>
+        <v>-1000.0000000000001</v>
       </c>
       <c r="G61" s="7">
         <v>0</v>
@@ -3441,20 +3441,20 @@
         <v>212</v>
       </c>
       <c r="C62" s="7">
-        <f t="shared" si="13"/>
-        <v>-10000</v>
+        <f t="shared" si="16"/>
+        <v>-1000</v>
       </c>
       <c r="D62" s="7">
-        <f t="shared" si="13"/>
-        <v>-10000</v>
+        <f t="shared" si="16"/>
+        <v>-1000</v>
       </c>
       <c r="E62" s="7">
-        <f t="shared" ref="E62:F62" si="36">10000*E26/E$8</f>
-        <v>-10000</v>
+        <f t="shared" si="16"/>
+        <v>-999.99999999999989</v>
       </c>
       <c r="F62" s="7">
-        <f t="shared" si="36"/>
-        <v>-10000</v>
+        <f t="shared" si="16"/>
+        <v>-1000.0000000000001</v>
       </c>
       <c r="G62" s="7">
         <v>0</v>
@@ -3468,19 +3468,19 @@
         <v>213</v>
       </c>
       <c r="C63" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D63" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E63" s="7">
-        <f t="shared" ref="E63:F63" si="37">10000*E27/E$8</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F63" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G63" s="7">
@@ -3495,19 +3495,19 @@
         <v>214</v>
       </c>
       <c r="C64" s="7">
-        <f t="shared" si="13"/>
-        <v>-2566.5236051502143</v>
+        <f t="shared" si="16"/>
+        <v>-256.65236051502143</v>
       </c>
       <c r="D64" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E64" s="7">
-        <f t="shared" ref="E64:F64" si="38">10000*E28/E$8</f>
-        <v>-371.42857142857139</v>
+        <f t="shared" si="16"/>
+        <v>-37.142857142857139</v>
       </c>
       <c r="F64" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G64" s="7">
@@ -3522,19 +3522,19 @@
         <v>215</v>
       </c>
       <c r="C65" s="7">
-        <f t="shared" si="13"/>
-        <v>-7811.1587982832625</v>
+        <f t="shared" si="16"/>
+        <v>-781.11587982832623</v>
       </c>
       <c r="D65" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E65" s="7">
-        <f t="shared" ref="E65:F65" si="39">10000*E29/E$8</f>
-        <v>-3714.2857142857138</v>
+        <f t="shared" si="16"/>
+        <v>-371.42857142857139</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G65" s="7">
@@ -3549,19 +3549,19 @@
         <v>216</v>
       </c>
       <c r="C66" s="7">
-        <f t="shared" si="13"/>
-        <v>-15622.317596566525</v>
+        <f t="shared" si="16"/>
+        <v>-1562.2317596566525</v>
       </c>
       <c r="D66" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E66" s="7">
-        <f t="shared" ref="E66:F66" si="40">10000*E30/E$8</f>
-        <v>-7428.5714285714275</v>
+        <f t="shared" si="16"/>
+        <v>-742.85714285714278</v>
       </c>
       <c r="F66" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G66" s="7">
@@ -3576,19 +3576,19 @@
         <v>217</v>
       </c>
       <c r="C67" s="7">
-        <f t="shared" si="13"/>
-        <v>-26000</v>
+        <f t="shared" si="16"/>
+        <v>-2599.9999999999995</v>
       </c>
       <c r="D67" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" ref="E67:F67" si="41">10000*E31/E$8</f>
-        <v>-7428.5714285714275</v>
+        <f t="shared" si="16"/>
+        <v>-742.85714285714278</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G67" s="7">
@@ -3603,19 +3603,19 @@
         <v>218</v>
       </c>
       <c r="C68" s="7">
-        <f t="shared" si="13"/>
-        <v>-26000</v>
+        <f t="shared" si="16"/>
+        <v>-2599.9999999999995</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" ref="E68:F68" si="42">10000*E32/E$8</f>
-        <v>-7428.5714285714275</v>
+        <f t="shared" si="16"/>
+        <v>-742.85714285714278</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G68" s="7">
@@ -3630,19 +3630,19 @@
         <v>219</v>
       </c>
       <c r="C69" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D69" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" ref="E69:F69" si="43">10000*E33/E$8</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G69" s="7">
@@ -3657,19 +3657,19 @@
         <v>220</v>
       </c>
       <c r="C70" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" ref="E70:F70" si="44">10000*E34/E$8</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G70" s="7">
@@ -3684,19 +3684,19 @@
         <v>221</v>
       </c>
       <c r="C71" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" ref="E71:F71" si="45">10000*E35/E$8</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G71" s="7">
@@ -3711,19 +3711,19 @@
         <v>222</v>
       </c>
       <c r="C72" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" ref="E72:F72" si="46">10000*E36/E$8</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G72" s="7">
@@ -3738,19 +3738,19 @@
         <v>223</v>
       </c>
       <c r="C73" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D73" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" ref="E73:F73" si="47">10000*E37/E$8</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G73" s="7">
@@ -3765,19 +3765,19 @@
         <v>224</v>
       </c>
       <c r="C74" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D74" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" ref="E74:F74" si="48">10000*E38/E$8</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G74" s="7">
@@ -3934,15 +3934,15 @@
         <v>-5000</v>
       </c>
       <c r="D81" s="7">
-        <f t="shared" ref="D81:G81" si="49">D75*-1</f>
+        <f t="shared" ref="D81:F81" si="17">D75*-1</f>
         <v>-5000</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="17"/>
         <v>-5000</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="17"/>
         <v>-5000</v>
       </c>
       <c r="G81" s="7">
@@ -3957,19 +3957,19 @@
         <v>244</v>
       </c>
       <c r="C82" s="7">
-        <f t="shared" ref="C82:G86" si="50">C76*-1</f>
+        <f t="shared" ref="C82:F86" si="18">C76*-1</f>
         <v>-5000</v>
       </c>
       <c r="D82" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-5000</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-5000</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-5000</v>
       </c>
       <c r="G82" s="7">
@@ -3984,19 +3984,19 @@
         <v>245</v>
       </c>
       <c r="C83" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-20000</v>
       </c>
       <c r="D83" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-20000</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-20000</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-20000</v>
       </c>
       <c r="G83" s="7">
@@ -4011,19 +4011,19 @@
         <v>246</v>
       </c>
       <c r="C84" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-40000</v>
       </c>
       <c r="D84" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-40000</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-40000</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-40000</v>
       </c>
       <c r="G84" s="7">
@@ -4038,19 +4038,19 @@
         <v>247</v>
       </c>
       <c r="C85" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-60000</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-60000</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-60000</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-60000</v>
       </c>
       <c r="G85" s="7">
@@ -4065,19 +4065,19 @@
         <v>248</v>
       </c>
       <c r="C86" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-60000</v>
       </c>
       <c r="D86" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-60000</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-60000</v>
       </c>
       <c r="F86" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>-60000</v>
       </c>
       <c r="G86" s="7">

--- a/Spec0.xlsx
+++ b/Spec0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHI\source\repos\MKCC0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300A7522-CCC8-4754-9CBA-F0A0B1068391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B8E1E1-215C-4E4B-BBCA-3D81C4F11AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="5550" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ST_AXIS" sheetId="1" r:id="rId1"/>
@@ -1867,10 +1867,10 @@
   <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2098,8 +2098,7 @@
         <v>153</v>
       </c>
       <c r="C10" s="9">
-        <f t="shared" ref="C10:C14" si="0">C4*2.6</f>
-        <v>5.9799999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -2123,8 +2122,7 @@
         <v>154</v>
       </c>
       <c r="C11" s="9">
-        <f t="shared" si="0"/>
-        <v>0.18200000000000002</v>
+        <v>0.18</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -2148,8 +2146,7 @@
         <v>155</v>
       </c>
       <c r="C12" s="9">
-        <f t="shared" si="0"/>
-        <v>0.36400000000000005</v>
+        <v>0.36</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -2172,8 +2169,7 @@
         <v>156</v>
       </c>
       <c r="C13" s="9">
-        <f t="shared" si="0"/>
-        <v>0.60580000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -2196,8 +2192,7 @@
         <v>157</v>
       </c>
       <c r="C14" s="9">
-        <f t="shared" si="0"/>
-        <v>0.60580000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -2385,19 +2380,19 @@
         <v>165</v>
       </c>
       <c r="C22" s="10">
-        <f t="shared" ref="C22:D32" si="1">C4*-1</f>
+        <f t="shared" ref="C22:D32" si="0">C4*-1</f>
         <v>-2.3E-2</v>
       </c>
       <c r="D22" s="10">
+        <f t="shared" si="0"/>
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" ref="E22:F22" si="1">E4*-1</f>
+        <v>-1.7500000000000003E-3</v>
+      </c>
+      <c r="F22" s="10">
         <f t="shared" si="1"/>
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="E22" s="10">
-        <f t="shared" ref="E22:F22" si="2">E4*-1</f>
-        <v>-1.7500000000000003E-3</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" si="2"/>
         <v>-5.8000000000000003E-2</v>
       </c>
       <c r="G22" s="10">
@@ -2412,19 +2407,19 @@
         <v>166</v>
       </c>
       <c r="C23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="D23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.1</v>
       </c>
       <c r="E23" s="10">
-        <f t="shared" ref="E23:F23" si="3">E5*-1</f>
+        <f t="shared" ref="E23:F23" si="2">E5*-1</f>
         <v>-1.7500000000000002E-2</v>
       </c>
       <c r="F23" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-0.17499999999999999</v>
       </c>
       <c r="G23" s="10">
@@ -2439,19 +2434,19 @@
         <v>167</v>
       </c>
       <c r="C24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.14000000000000001</v>
       </c>
       <c r="D24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
       <c r="E24" s="10">
-        <f t="shared" ref="E24:F24" si="4">E6*-1</f>
+        <f t="shared" ref="E24:F24" si="3">E6*-1</f>
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.35</v>
       </c>
       <c r="G24" s="10">
@@ -2466,19 +2461,19 @@
         <v>168</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.23300000000000001</v>
       </c>
       <c r="D25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.33</v>
       </c>
       <c r="E25" s="10">
-        <f t="shared" ref="E25:F25" si="5">E7*-1</f>
+        <f t="shared" ref="E25:F25" si="4">E7*-1</f>
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="F25" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.57999999999999996</v>
       </c>
       <c r="G25" s="10">
@@ -2493,19 +2488,19 @@
         <v>169</v>
       </c>
       <c r="C26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.23300000000000001</v>
       </c>
       <c r="D26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.33</v>
       </c>
       <c r="E26" s="10">
-        <f t="shared" ref="E26:F26" si="6">E8*-1</f>
+        <f t="shared" ref="E26:F26" si="5">E8*-1</f>
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-0.57999999999999996</v>
       </c>
       <c r="G26" s="10">
@@ -2520,19 +2515,19 @@
         <v>170</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" ref="E27:F27" si="7">E9*-1</f>
+        <f t="shared" ref="E27:F27" si="6">E9*-1</f>
         <v>0</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G27" s="10">
@@ -2547,19 +2542,19 @@
         <v>171</v>
       </c>
       <c r="C28" s="10">
-        <f t="shared" si="1"/>
-        <v>-5.9799999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>-0.06</v>
       </c>
       <c r="D28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" s="10">
-        <f t="shared" ref="E28:F28" si="8">E10*-1</f>
+        <f t="shared" ref="E28:F28" si="7">E10*-1</f>
         <v>-1.2999999999999999E-3</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G28" s="10">
@@ -2574,19 +2569,19 @@
         <v>172</v>
       </c>
       <c r="C29" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.18200000000000002</v>
+        <f t="shared" si="0"/>
+        <v>-0.18</v>
       </c>
       <c r="D29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" ref="E29:F29" si="9">E11*-1</f>
+        <f t="shared" ref="E29:F29" si="8">E11*-1</f>
         <v>-1.2999999999999999E-2</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G29" s="10">
@@ -2601,19 +2596,19 @@
         <v>173</v>
       </c>
       <c r="C30" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.36400000000000005</v>
+        <f t="shared" si="0"/>
+        <v>-0.36</v>
       </c>
       <c r="D30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" ref="E30:F30" si="10">E12*-1</f>
+        <f t="shared" ref="E30:F30" si="9">E12*-1</f>
         <v>-2.5999999999999999E-2</v>
       </c>
       <c r="F30" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G30" s="10">
@@ -2628,19 +2623,19 @@
         <v>174</v>
       </c>
       <c r="C31" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.60580000000000001</v>
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
       </c>
       <c r="D31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31" s="10">
-        <f t="shared" ref="E31:F31" si="11">E13*-1</f>
+        <f t="shared" ref="E31:F31" si="10">E13*-1</f>
         <v>-2.5999999999999999E-2</v>
       </c>
       <c r="F31" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G31" s="10">
@@ -2655,19 +2650,19 @@
         <v>175</v>
       </c>
       <c r="C32" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.60580000000000001</v>
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
       </c>
       <c r="D32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32" s="10">
-        <f t="shared" ref="E32:F32" si="12">E14*-1</f>
+        <f t="shared" ref="E32:F32" si="11">E14*-1</f>
         <v>-2.5999999999999999E-2</v>
       </c>
       <c r="F32" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G32" s="10">
@@ -2824,15 +2819,15 @@
         <v>0</v>
       </c>
       <c r="D39" s="8">
-        <f t="shared" ref="D39:F39" si="13">1000*D3/D$8</f>
+        <f t="shared" ref="D39:F39" si="12">1000*D3/D$8</f>
         <v>0</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G39" s="8">
@@ -2847,19 +2842,19 @@
         <v>226</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" ref="C40:F56" si="14">1000*C4/C$8</f>
+        <f t="shared" ref="C40:F56" si="13">1000*C4/C$8</f>
         <v>98.71244635193132</v>
       </c>
       <c r="D40" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="E40" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G40" s="8">
@@ -2874,19 +2869,19 @@
         <v>227</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>300.42918454935619</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>303.030303030303</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>499.99999999999994</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>301.72413793103448</v>
       </c>
       <c r="G41" s="8">
@@ -2901,19 +2896,19 @@
         <v>228</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>600.85836909871239</v>
       </c>
       <c r="D42" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>606.06060606060601</v>
       </c>
       <c r="E42" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>999.99999999999989</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>603.44827586206895</v>
       </c>
       <c r="G42" s="8">
@@ -2928,19 +2923,19 @@
         <v>229</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="D43" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="E43" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>999.99999999999989</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1000.0000000000001</v>
       </c>
       <c r="G43" s="8">
@@ -2955,19 +2950,19 @@
         <v>230</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="D44" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="E44" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>999.99999999999989</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1000.0000000000001</v>
       </c>
       <c r="G44" s="8">
@@ -2982,19 +2977,19 @@
         <v>195</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D45" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F45" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G45" s="8">
@@ -3009,19 +3004,19 @@
         <v>196</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="14"/>
-        <v>256.65236051502143</v>
+        <f t="shared" si="13"/>
+        <v>257.51072961373387</v>
       </c>
       <c r="D46" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>37.142857142857139</v>
       </c>
       <c r="F46" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G46" s="8">
@@ -3036,19 +3031,19 @@
         <v>197</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="14"/>
-        <v>781.11587982832623</v>
+        <f t="shared" si="13"/>
+        <v>772.53218884120167</v>
       </c>
       <c r="D47" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>371.42857142857139</v>
       </c>
       <c r="F47" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G47" s="8">
@@ -3063,19 +3058,19 @@
         <v>198</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="14"/>
-        <v>1562.2317596566525</v>
+        <f t="shared" si="13"/>
+        <v>1545.0643776824033</v>
       </c>
       <c r="D48" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>742.85714285714278</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G48" s="8">
@@ -3090,19 +3085,19 @@
         <v>199</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="14"/>
-        <v>2599.9999999999995</v>
+        <f t="shared" si="13"/>
+        <v>2575.1072961373388</v>
       </c>
       <c r="D49" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>742.85714285714278</v>
       </c>
       <c r="F49" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G49" s="8">
@@ -3117,19 +3112,19 @@
         <v>200</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" si="14"/>
-        <v>2599.9999999999995</v>
+        <f t="shared" si="13"/>
+        <v>2575.1072961373388</v>
       </c>
       <c r="D50" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E50" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>742.85714285714278</v>
       </c>
       <c r="F50" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G50" s="8">
@@ -3144,19 +3139,19 @@
         <v>201</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D51" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E51" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F51" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G51" s="8">
@@ -3171,19 +3166,19 @@
         <v>202</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D52" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E52" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F52" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G52" s="8">
@@ -3198,19 +3193,19 @@
         <v>203</v>
       </c>
       <c r="C53" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D53" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E53" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F53" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G53" s="8">
@@ -3225,19 +3220,19 @@
         <v>204</v>
       </c>
       <c r="C54" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D54" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E54" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F54" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G54" s="8">
@@ -3252,19 +3247,19 @@
         <v>205</v>
       </c>
       <c r="C55" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D55" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F55" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G55" s="8">
@@ -3279,19 +3274,19 @@
         <v>206</v>
       </c>
       <c r="C56" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D56" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F56" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G56" s="8">
@@ -3310,15 +3305,15 @@
         <v>0</v>
       </c>
       <c r="D57" s="7">
-        <f t="shared" ref="D57:F57" si="15">1000*D21/D$8</f>
+        <f t="shared" ref="D57:F57" si="14">1000*D21/D$8</f>
         <v>0</v>
       </c>
       <c r="E57" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F57" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G57" s="7">
@@ -3333,19 +3328,19 @@
         <v>208</v>
       </c>
       <c r="C58" s="7">
-        <f t="shared" ref="C58:F74" si="16">1000*C22/C$8</f>
+        <f t="shared" ref="C58:F74" si="15">1000*C22/C$8</f>
         <v>-98.71244635193132</v>
       </c>
       <c r="D58" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-100</v>
       </c>
       <c r="E58" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-50</v>
       </c>
       <c r="F58" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-100</v>
       </c>
       <c r="G58" s="7">
@@ -3360,19 +3355,19 @@
         <v>209</v>
       </c>
       <c r="C59" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-300.42918454935619</v>
       </c>
       <c r="D59" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-303.030303030303</v>
       </c>
       <c r="E59" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-499.99999999999994</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-301.72413793103448</v>
       </c>
       <c r="G59" s="7">
@@ -3387,19 +3382,19 @@
         <v>210</v>
       </c>
       <c r="C60" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-600.85836909871239</v>
       </c>
       <c r="D60" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-606.06060606060601</v>
       </c>
       <c r="E60" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-999.99999999999989</v>
       </c>
       <c r="F60" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-603.44827586206895</v>
       </c>
       <c r="G60" s="7">
@@ -3414,19 +3409,19 @@
         <v>211</v>
       </c>
       <c r="C61" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-1000</v>
       </c>
       <c r="D61" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-1000</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-999.99999999999989</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-1000.0000000000001</v>
       </c>
       <c r="G61" s="7">
@@ -3441,19 +3436,19 @@
         <v>212</v>
       </c>
       <c r="C62" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-1000</v>
       </c>
       <c r="D62" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-1000</v>
       </c>
       <c r="E62" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-999.99999999999989</v>
       </c>
       <c r="F62" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-1000.0000000000001</v>
       </c>
       <c r="G62" s="7">
@@ -3468,19 +3463,19 @@
         <v>213</v>
       </c>
       <c r="C63" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D63" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E63" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F63" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G63" s="7">
@@ -3495,19 +3490,19 @@
         <v>214</v>
       </c>
       <c r="C64" s="7">
-        <f t="shared" si="16"/>
-        <v>-256.65236051502143</v>
+        <f t="shared" si="15"/>
+        <v>-257.51072961373387</v>
       </c>
       <c r="D64" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E64" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-37.142857142857139</v>
       </c>
       <c r="F64" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G64" s="7">
@@ -3522,19 +3517,19 @@
         <v>215</v>
       </c>
       <c r="C65" s="7">
-        <f t="shared" si="16"/>
-        <v>-781.11587982832623</v>
+        <f t="shared" si="15"/>
+        <v>-772.53218884120167</v>
       </c>
       <c r="D65" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E65" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-371.42857142857139</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G65" s="7">
@@ -3549,19 +3544,19 @@
         <v>216</v>
       </c>
       <c r="C66" s="7">
-        <f t="shared" si="16"/>
-        <v>-1562.2317596566525</v>
+        <f t="shared" si="15"/>
+        <v>-1545.0643776824033</v>
       </c>
       <c r="D66" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E66" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-742.85714285714278</v>
       </c>
       <c r="F66" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G66" s="7">
@@ -3576,19 +3571,19 @@
         <v>217</v>
       </c>
       <c r="C67" s="7">
-        <f t="shared" si="16"/>
-        <v>-2599.9999999999995</v>
+        <f>1000*C31/C$8</f>
+        <v>-2575.1072961373388</v>
       </c>
       <c r="D67" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-742.85714285714278</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G67" s="7">
@@ -3603,19 +3598,19 @@
         <v>218</v>
       </c>
       <c r="C68" s="7">
-        <f t="shared" si="16"/>
-        <v>-2599.9999999999995</v>
+        <f t="shared" si="15"/>
+        <v>-2575.1072961373388</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-742.85714285714278</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G68" s="7">
@@ -3630,19 +3625,19 @@
         <v>219</v>
       </c>
       <c r="C69" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D69" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G69" s="7">
@@ -3657,19 +3652,19 @@
         <v>220</v>
       </c>
       <c r="C70" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G70" s="7">
@@ -3684,19 +3679,19 @@
         <v>221</v>
       </c>
       <c r="C71" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G71" s="7">
@@ -3711,19 +3706,19 @@
         <v>222</v>
       </c>
       <c r="C72" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G72" s="7">
@@ -3738,19 +3733,19 @@
         <v>223</v>
       </c>
       <c r="C73" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D73" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G73" s="7">
@@ -3765,19 +3760,19 @@
         <v>224</v>
       </c>
       <c r="C74" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D74" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G74" s="7">
@@ -3934,15 +3929,15 @@
         <v>-5000</v>
       </c>
       <c r="D81" s="7">
-        <f t="shared" ref="D81:F81" si="17">D75*-1</f>
+        <f t="shared" ref="D81:F81" si="16">D75*-1</f>
         <v>-5000</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-5000</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-5000</v>
       </c>
       <c r="G81" s="7">
@@ -3957,19 +3952,19 @@
         <v>244</v>
       </c>
       <c r="C82" s="7">
-        <f t="shared" ref="C82:F86" si="18">C76*-1</f>
+        <f t="shared" ref="C82:F86" si="17">C76*-1</f>
         <v>-5000</v>
       </c>
       <c r="D82" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-5000</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-5000</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-5000</v>
       </c>
       <c r="G82" s="7">
@@ -3984,19 +3979,19 @@
         <v>245</v>
       </c>
       <c r="C83" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-20000</v>
       </c>
       <c r="D83" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-20000</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-20000</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-20000</v>
       </c>
       <c r="G83" s="7">
@@ -4011,19 +4006,19 @@
         <v>246</v>
       </c>
       <c r="C84" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-40000</v>
       </c>
       <c r="D84" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-40000</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-40000</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-40000</v>
       </c>
       <c r="G84" s="7">
@@ -4038,19 +4033,19 @@
         <v>247</v>
       </c>
       <c r="C85" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-60000</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-60000</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-60000</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-60000</v>
       </c>
       <c r="G85" s="7">
@@ -4065,19 +4060,19 @@
         <v>248</v>
       </c>
       <c r="C86" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-60000</v>
       </c>
       <c r="D86" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-60000</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-60000</v>
       </c>
       <c r="F86" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-60000</v>
       </c>
       <c r="G86" s="7">
@@ -4120,7 +4115,7 @@
       </c>
       <c r="C88" s="9">
         <f>(C14-C8)/C94</f>
-        <v>0.14912</v>
+        <v>0.14679999999999999</v>
       </c>
       <c r="D88" s="9">
         <v>0</v>
@@ -4196,7 +4191,7 @@
       </c>
       <c r="C91" s="10">
         <f>(C32-C26)/C97</f>
-        <v>-0.14912</v>
+        <v>-0.14679999999999999</v>
       </c>
       <c r="D91" s="10">
         <v>0</v>
